--- a/teaching/traditional_assets/database/data/canada/canada_electronics_consumer_office.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_electronics_consumer_office.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.104</v>
+        <v>-0.0638</v>
       </c>
       <c r="G2">
-        <v>0.1183450704225352</v>
+        <v>0.2150387596899225</v>
       </c>
       <c r="H2">
-        <v>0.02795774647887324</v>
+        <v>0.01813953488372093</v>
       </c>
       <c r="I2">
-        <v>-0.05149556206666391</v>
+        <v>-0.1899642401485432</v>
       </c>
       <c r="J2">
-        <v>-0.05149556206666391</v>
+        <v>-0.1899642401485432</v>
       </c>
       <c r="K2">
-        <v>-2.516</v>
+        <v>-4.98</v>
       </c>
       <c r="L2">
-        <v>-0.08859154929577465</v>
+        <v>-0.386046511627907</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.191999999999999</v>
+        <v>3.74</v>
       </c>
       <c r="V2">
-        <v>0.3435907616967771</v>
+        <v>0.2579310344827586</v>
       </c>
       <c r="W2">
-        <v>-0.05084745762711864</v>
+        <v>-0.343448275862069</v>
       </c>
       <c r="X2">
-        <v>0.113438962205412</v>
+        <v>0.07612369951267055</v>
       </c>
       <c r="Y2">
-        <v>-0.1642864198325307</v>
+        <v>-0.4195719753747396</v>
       </c>
       <c r="Z2">
-        <v>1.893034257461636</v>
+        <v>0.963211769912876</v>
       </c>
       <c r="AA2">
-        <v>-0.07443599938309843</v>
+        <v>-0.1829757919736329</v>
       </c>
       <c r="AB2">
-        <v>0.08359474591372543</v>
+        <v>0.0649202514740444</v>
       </c>
       <c r="AC2">
-        <v>-0.1590896704498311</v>
+        <v>-0.2478960434476773</v>
       </c>
       <c r="AD2">
-        <v>5.43</v>
+        <v>4.59</v>
       </c>
       <c r="AE2">
-        <v>0.7023698134662746</v>
+        <v>0.07269348958103417</v>
       </c>
       <c r="AF2">
-        <v>6.132369813466275</v>
+        <v>4.662693489581034</v>
       </c>
       <c r="AG2">
-        <v>0.9403698134662752</v>
+        <v>0.9226934895810341</v>
       </c>
       <c r="AH2">
-        <v>0.2886721771222444</v>
+        <v>0.2433214042752493</v>
       </c>
       <c r="AI2">
-        <v>0.309023157253645</v>
+        <v>0.3280654362242552</v>
       </c>
       <c r="AJ2">
-        <v>0.0585850194964266</v>
+        <v>0.05982700040069976</v>
       </c>
       <c r="AK2">
-        <v>0.06417868409259145</v>
+        <v>0.08810469727763864</v>
       </c>
       <c r="AL2">
-        <v>0.743</v>
+        <v>0.205</v>
       </c>
       <c r="AM2">
-        <v>0.659</v>
+        <v>0.174</v>
       </c>
       <c r="AN2">
-        <v>9.141414141414142</v>
+        <v>-9.849785407725321</v>
       </c>
       <c r="AO2">
-        <v>-2.152086137281292</v>
+        <v>-12.09756097560976</v>
       </c>
       <c r="AP2">
-        <v>1.583114164084638</v>
+        <v>-1.980028947598786</v>
       </c>
       <c r="AQ2">
-        <v>-2.426403641881639</v>
+        <v>-14.25287356321839</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HIT Technologies Inc. (TSXV:HIT)</t>
+          <t>D-BOX Technologies Inc. (TSX:DBO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.11</v>
+        <v>-0.0638</v>
       </c>
       <c r="G3">
-        <v>-0.1553921568627451</v>
+        <v>0.2150387596899225</v>
       </c>
       <c r="H3">
-        <v>-0.1833333333333333</v>
+        <v>0.01813953488372093</v>
       </c>
       <c r="I3">
-        <v>-0.1446078431372549</v>
+        <v>-0.1899642401485432</v>
       </c>
       <c r="J3">
-        <v>-0.1446078431372549</v>
+        <v>-0.1899642401485432</v>
       </c>
       <c r="K3">
-        <v>-0.761</v>
+        <v>-4.98</v>
       </c>
       <c r="L3">
-        <v>-0.3730392156862745</v>
+        <v>-0.386046511627907</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,329 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.08500000000000001</v>
+        <v>3.74</v>
       </c>
       <c r="V3">
-        <v>0.114247311827957</v>
+        <v>0.2579310344827586</v>
       </c>
       <c r="W3">
-        <v>0.8174006444683136</v>
+        <v>-0.343448275862069</v>
       </c>
       <c r="X3">
-        <v>0.1903128696363856</v>
+        <v>0.07612369951267055</v>
       </c>
       <c r="Y3">
-        <v>0.627087774831928</v>
+        <v>-0.4195719753747396</v>
       </c>
       <c r="Z3">
-        <v>-7.472527472527471</v>
+        <v>0.963211769912876</v>
       </c>
       <c r="AA3">
-        <v>1.08058608058608</v>
+        <v>-0.1829757919736329</v>
       </c>
       <c r="AB3">
-        <v>0.08059471447666561</v>
+        <v>0.0649202514740444</v>
       </c>
       <c r="AC3">
-        <v>0.9999913661094146</v>
+        <v>-0.2478960434476773</v>
       </c>
       <c r="AD3">
-        <v>1.55</v>
+        <v>4.59</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.07269348958103417</v>
       </c>
       <c r="AF3">
-        <v>1.55</v>
+        <v>4.662693489581034</v>
       </c>
       <c r="AG3">
-        <v>1.465</v>
+        <v>0.9226934895810341</v>
       </c>
       <c r="AH3">
-        <v>0.6756756756756757</v>
+        <v>0.2433214042752493</v>
       </c>
       <c r="AI3">
-        <v>154.9999999999999</v>
+        <v>0.3280654362242552</v>
       </c>
       <c r="AJ3">
-        <v>0.663196016296967</v>
+        <v>0.05982700040069976</v>
       </c>
       <c r="AK3">
-        <v>-19.53333333333335</v>
+        <v>0.08810469727763864</v>
       </c>
       <c r="AL3">
-        <v>0.233</v>
+        <v>0.205</v>
       </c>
       <c r="AM3">
-        <v>0.233</v>
+        <v>0.174</v>
       </c>
       <c r="AN3">
-        <v>-6.512605042016808</v>
+        <v>-9.849785407725321</v>
       </c>
       <c r="AO3">
-        <v>-1.266094420600858</v>
+        <v>-12.09756097560976</v>
       </c>
       <c r="AP3">
-        <v>-6.15546218487395</v>
+        <v>-1.980028947598786</v>
       </c>
       <c r="AQ3">
-        <v>-1.266094420600858</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>D-BOX Technologies Inc. (TSX:DBO)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Electronics (Consumer &amp; Office)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.104</v>
-      </c>
-      <c r="G4">
-        <v>0.1660869565217391</v>
-      </c>
-      <c r="H4">
-        <v>0.05695652173913044</v>
-      </c>
-      <c r="I4">
-        <v>-0.04623943107384681</v>
-      </c>
-      <c r="J4">
-        <v>-0.04623943107384681</v>
-      </c>
-      <c r="K4">
-        <v>-1.71</v>
-      </c>
-      <c r="L4">
-        <v>-0.07434782608695652</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>4.68</v>
-      </c>
-      <c r="V4">
-        <v>0.3466666666666666</v>
-      </c>
-      <c r="W4">
-        <v>-0.1036363636363636</v>
-      </c>
-      <c r="X4">
-        <v>0.1019545360113757</v>
-      </c>
-      <c r="Y4">
-        <v>-0.2055908996477394</v>
-      </c>
-      <c r="Z4">
-        <v>1.609794879703866</v>
-      </c>
-      <c r="AA4">
-        <v>-0.07443599938309843</v>
-      </c>
-      <c r="AB4">
-        <v>0.08465367106673269</v>
-      </c>
-      <c r="AC4">
-        <v>-0.1590896704498311</v>
-      </c>
-      <c r="AD4">
-        <v>3.5</v>
-      </c>
-      <c r="AE4">
-        <v>0.6175345734923827</v>
-      </c>
-      <c r="AF4">
-        <v>4.117534573492382</v>
-      </c>
-      <c r="AG4">
-        <v>-0.5624654265076172</v>
-      </c>
-      <c r="AH4">
-        <v>0.2337179788872212</v>
-      </c>
-      <c r="AI4">
-        <v>0.2211643307140636</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.0434754723407695</v>
-      </c>
-      <c r="AK4">
-        <v>-0.0403561636774242</v>
-      </c>
-      <c r="AL4">
-        <v>0.423</v>
-      </c>
-      <c r="AM4">
-        <v>0.339</v>
-      </c>
-      <c r="AN4">
-        <v>4.036908881199539</v>
-      </c>
-      <c r="AO4">
-        <v>-2.789598108747045</v>
-      </c>
-      <c r="AP4">
-        <v>-0.6487490501817961</v>
-      </c>
-      <c r="AQ4">
-        <v>-3.480825958702065</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>International Parkside Products Inc. (TSXV:IPD)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Electronics (Consumer &amp; Office)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.0111</v>
-      </c>
-      <c r="G5">
-        <v>-0.04226190476190476</v>
-      </c>
-      <c r="H5">
-        <v>-0.04226190476190476</v>
-      </c>
-      <c r="I5">
-        <v>-0.03094257380796976</v>
-      </c>
-      <c r="J5">
-        <v>-0.03094257380796976</v>
-      </c>
-      <c r="K5">
-        <v>-0.045</v>
-      </c>
-      <c r="L5">
-        <v>-0.01339285714285714</v>
-      </c>
-      <c r="M5">
-        <v>-0</v>
-      </c>
-      <c r="N5">
-        <v>-0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.427</v>
-      </c>
-      <c r="V5">
-        <v>0.4925028835063437</v>
-      </c>
-      <c r="W5">
-        <v>-0.05084745762711864</v>
-      </c>
-      <c r="X5">
-        <v>0.113438962205412</v>
-      </c>
-      <c r="Y5">
-        <v>-0.1642864198325307</v>
-      </c>
-      <c r="Z5">
-        <v>3.401376934162425</v>
-      </c>
-      <c r="AA5">
-        <v>-0.1052473568340467</v>
-      </c>
-      <c r="AB5">
-        <v>0.08359474591372543</v>
-      </c>
-      <c r="AC5">
-        <v>-0.1888421027477721</v>
-      </c>
-      <c r="AD5">
-        <v>0.38</v>
-      </c>
-      <c r="AE5">
-        <v>0.08483523997389188</v>
-      </c>
-      <c r="AF5">
-        <v>0.4648352399738919</v>
-      </c>
-      <c r="AG5">
-        <v>0.03783523997389188</v>
-      </c>
-      <c r="AH5">
-        <v>0.3490185767895765</v>
-      </c>
-      <c r="AI5">
-        <v>0.3820034337465976</v>
-      </c>
-      <c r="AJ5">
-        <v>0.04181450755054984</v>
-      </c>
-      <c r="AK5">
-        <v>0.04790269927072705</v>
-      </c>
-      <c r="AL5">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="AM5">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="AN5">
-        <v>-10.85714285714286</v>
-      </c>
-      <c r="AO5">
-        <v>-1.425287356321839</v>
-      </c>
-      <c r="AP5">
-        <v>-1.081006856396911</v>
-      </c>
-      <c r="AQ5">
-        <v>-1.425287356321839</v>
+        <v>-14.25287356321839</v>
       </c>
     </row>
   </sheetData>
